--- a/inquiries/static/Location_list.xlsx
+++ b/inquiries/static/Location_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="129">
   <si>
     <t>S.N</t>
   </si>
@@ -22,9 +22,6 @@
     <t>BLOCK</t>
   </si>
   <si>
-    <t>BOCHAHAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adigopalpur </t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t xml:space="preserve">Vishunpur Jagdish </t>
   </si>
   <si>
-    <t>MINAPUR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ali Neora </t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t xml:space="preserve">Turki West </t>
   </si>
   <si>
-    <t>KANTI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bahuaara </t>
   </si>
   <si>
@@ -404,6 +395,12 @@
   </si>
   <si>
     <t>Location_Panchayat</t>
+  </si>
+  <si>
+    <t>Bochahan</t>
+  </si>
+  <si>
+    <t>Kanti</t>
   </si>
 </sst>
 </file>
@@ -800,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -821,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -830,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -842,10 +839,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -854,10 +851,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -866,10 +863,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -878,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -890,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -902,10 +899,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -913,10 +910,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -924,10 +921,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -935,10 +932,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.95" x14ac:dyDescent="0.4">
@@ -946,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -957,10 +954,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -968,10 +965,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -979,10 +976,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -990,10 +987,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
@@ -1001,10 +998,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
@@ -1012,10 +1009,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
@@ -1023,10 +1020,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
@@ -1034,10 +1031,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
@@ -1045,307 +1042,307 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>23</v>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>23</v>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>23</v>
+      <c r="C27" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <v>27</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>23</v>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>28</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>23</v>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
         <v>29</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>23</v>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>23</v>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
         <v>31</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>23</v>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>23</v>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>33</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>23</v>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>23</v>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>23</v>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>23</v>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
         <v>37</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>23</v>
+      <c r="C38" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>23</v>
+      <c r="C39" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>23</v>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>23</v>
+      <c r="C41" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>23</v>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>23</v>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="5">
         <v>43</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>23</v>
+      <c r="C44" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>44</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>23</v>
+      <c r="C45" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="5">
         <v>45</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>23</v>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
         <v>46</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>23</v>
+      <c r="C47" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
         <v>47</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>23</v>
+      <c r="C48" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
@@ -1353,10 +1350,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
@@ -1364,10 +1361,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
@@ -1375,10 +1372,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
@@ -1386,10 +1383,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
@@ -1397,10 +1394,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
@@ -1408,10 +1405,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
@@ -1419,10 +1416,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
@@ -1430,10 +1427,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
@@ -1441,10 +1438,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
@@ -1452,10 +1449,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
@@ -1463,10 +1460,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
@@ -1474,10 +1471,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
@@ -1485,10 +1482,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
@@ -1496,10 +1493,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
@@ -1507,10 +1504,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
@@ -1518,10 +1515,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
@@ -1529,10 +1526,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
@@ -1540,10 +1537,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
@@ -1551,10 +1548,10 @@
         <v>66</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
@@ -1562,10 +1559,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
@@ -1573,10 +1570,10 @@
         <v>68</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
@@ -1584,10 +1581,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
@@ -1595,10 +1592,10 @@
         <v>70</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
@@ -1606,10 +1603,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
@@ -1617,10 +1614,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
@@ -1628,10 +1625,10 @@
         <v>73</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
@@ -1639,10 +1636,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
@@ -1650,10 +1647,10 @@
         <v>75</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
@@ -1661,10 +1658,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
@@ -1672,10 +1669,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
@@ -1683,10 +1680,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
@@ -1694,10 +1691,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
@@ -1705,10 +1702,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
@@ -1716,10 +1713,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
@@ -1727,10 +1724,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
@@ -1738,10 +1735,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
@@ -1749,10 +1746,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
@@ -1760,10 +1757,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
@@ -1771,10 +1768,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
@@ -1782,10 +1779,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
@@ -1793,10 +1790,10 @@
         <v>88</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
@@ -1804,10 +1801,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
@@ -1815,10 +1812,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
@@ -1826,10 +1823,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.35">
@@ -1837,10 +1834,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.35">
@@ -1848,10 +1845,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.35">
@@ -1859,10 +1856,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.35">
@@ -1870,10 +1867,10 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.35">
@@ -1881,10 +1878,10 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.35">
@@ -1892,10 +1889,10 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.35">
@@ -1903,10 +1900,10 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.35">
@@ -1914,10 +1911,10 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.35">
@@ -1925,10 +1922,10 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.35">
@@ -1936,10 +1933,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.35">
@@ -1947,10 +1944,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.35">
@@ -1958,10 +1955,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.35">
@@ -1969,10 +1966,10 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.35">
@@ -1980,10 +1977,10 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.35">
@@ -1991,10 +1988,10 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.35">
@@ -2002,10 +1999,10 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.35">
@@ -2013,10 +2010,10 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.35">
@@ -2024,10 +2021,10 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.35">
@@ -2035,10 +2032,10 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.35">
@@ -2046,10 +2043,10 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.35">
@@ -2057,10 +2054,10 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.35">
@@ -2068,10 +2065,10 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.35">
@@ -2079,10 +2076,10 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.35">
@@ -2090,10 +2087,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.35">
@@ -2101,10 +2098,10 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.35">
@@ -2112,10 +2109,10 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.35">
@@ -2123,10 +2120,10 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.35">
@@ -2134,10 +2131,10 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.35">
@@ -2145,10 +2142,10 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.35">
@@ -2156,10 +2153,10 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
